--- a/medicine/Mort/Jack_Ketch/Jack_Ketch.xlsx
+++ b/medicine/Mort/Jack_Ketch/Jack_Ketch.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jack Ketch, dont la véritable identité est John Ketch, est un bourreau anglais qui est né à une date inconnue et qui est mort en novembre 1686.
 Employé par le roi Charles II et bourreau royal à partir de 1663 durant la Restauration Stuart, il est devenu célèbre par la manière dont il a effectué son activité durant les années 1680. Il a exécuté les sentences de mort à l'égard, notamment, de lord William Russell ou James Scott, duc de Monmouth. 
@@ -513,7 +525,9 @@
           <t>Dans la fiction</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Il est mentionné à plusieurs reprises dans le roman Le Secret du gibet (1932) de John Dickson Carr.
 C'est un personnage dans le comics Fables (comics) de Bill Willingham publié par DC Comics sous le label Vertigo.
